--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,16 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>died</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
@@ -70,55 +58,52 @@
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
@@ -127,76 +112,64 @@
     <t>heroes</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>important</t>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -554,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8823529411764706</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -823,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7337662337662337</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C7">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8928571428571429</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4761904761904762</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,269 +864,149 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>124</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L9">
+        <v>95</v>
+      </c>
+      <c r="M9">
+        <v>95</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L10">
+        <v>67</v>
+      </c>
+      <c r="M10">
+        <v>67</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L11">
+        <v>47</v>
+      </c>
+      <c r="M11">
+        <v>47</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>11</v>
       </c>
-      <c r="J8" s="1" t="s">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.8046875</v>
+      </c>
+      <c r="L12">
+        <v>103</v>
+      </c>
+      <c r="M12">
+        <v>103</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>0.75</v>
+      </c>
+      <c r="L13">
         <v>27</v>
       </c>
-      <c r="K8">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>24</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L9">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>45</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.3562231759656652</v>
-      </c>
-      <c r="C11">
-        <v>83</v>
-      </c>
-      <c r="D11">
-        <v>83</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>150</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>0.85</v>
-      </c>
-      <c r="L11">
-        <v>34</v>
-      </c>
-      <c r="M11">
-        <v>34</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.25</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>60</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L12">
-        <v>24</v>
-      </c>
-      <c r="M12">
-        <v>24</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>67</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L13">
-        <v>42</v>
-      </c>
       <c r="M13">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1169,41 +1022,17 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>96</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.8148148148148148</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,45 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.06989247311827956</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>173</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1291,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.69375</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1343,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.696969696969697</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1395,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6575342465753424</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1421,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6538461538461539</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1447,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6470588235294118</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1473,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6410256410256411</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1499,47 +1304,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L25">
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>15</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5789473684210527</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1551,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.568075117370892</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L27">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="M27">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1577,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>92</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5666666666666667</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1603,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5454545454545454</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1629,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5277777777777778</v>
+        <v>0.4</v>
       </c>
       <c r="L30">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1655,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4961240310077519</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L31">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1681,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1707,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4285714285714285</v>
+        <v>0.3682008368200837</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="M33">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1733,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4130434782608696</v>
+        <v>0.34375</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1759,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1785,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3421052631578947</v>
+        <v>0.03131991051454139</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1811,137 +1616,85 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>866</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.3125</v>
+        <v>0.01493930905695612</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.2972972972972973</v>
+        <v>0.008381689232753063</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>26</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.03414634146341464</v>
+        <v>0.005948653725735754</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40">
-        <v>0.02582159624413146</v>
-      </c>
-      <c r="L40">
-        <v>11</v>
-      </c>
-      <c r="M40">
-        <v>11</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K41">
-        <v>0.01248884924174844</v>
-      </c>
-      <c r="L41">
-        <v>14</v>
-      </c>
-      <c r="M41">
-        <v>16</v>
-      </c>
-      <c r="N41">
-        <v>0.88</v>
-      </c>
-      <c r="O41">
-        <v>0.12</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>1107</v>
+        <v>3175</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>died</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -55,7 +58,7 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
@@ -67,55 +70,61 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>credit</t>
   </si>
   <si>
     <t>fresh</t>
@@ -124,52 +133,52 @@
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -527,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9615384615384616</v>
@@ -646,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7307692307692307</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.613013698630137</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2063492063492063</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1841085271317829</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>421</v>
+        <v>149</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1677852348993289</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.8518518518518519</v>
@@ -892,17 +901,41 @@
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>228</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8482142857142857</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -914,21 +947,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -940,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -966,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.8046875</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -992,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.75</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1018,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L14">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1044,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7264150943396226</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L15">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1070,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7254901960784313</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1096,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.69375</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1122,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6901408450704225</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1148,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1174,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1200,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6388888888888888</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1226,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1257,16 +1290,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1278,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5638297872340425</v>
+        <v>0.5625</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1304,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5588235294117647</v>
+        <v>0.54</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1330,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5248041775456919</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L26">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M26">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1356,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4676470588235294</v>
+        <v>0.525</v>
       </c>
       <c r="L27">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1382,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>181</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.449438202247191</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1408,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>49</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4305084745762712</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L29">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M29">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1434,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1460,21 +1493,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.3972602739726027</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1486,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3717948717948718</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1512,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3682008368200837</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L33">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1538,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.34375</v>
+        <v>0.359375</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1564,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.04784688995215311</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1590,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>398</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.03131991051454139</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1616,85 +1649,137 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>866</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.01493930905695612</v>
+        <v>0.05502392344497608</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2110</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.008381689232753063</v>
+        <v>0.03243847874720358</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N38">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3076</v>
+        <v>865</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.005948653725735754</v>
+        <v>0.02552719200887902</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N39">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>3175</v>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>0.01168224299065421</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>0.89</v>
+      </c>
+      <c r="O40">
+        <v>0.11</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41">
+        <v>0.01031592520954223</v>
+      </c>
+      <c r="L41">
+        <v>32</v>
+      </c>
+      <c r="M41">
+        <v>37</v>
+      </c>
+      <c r="N41">
+        <v>0.86</v>
+      </c>
+      <c r="O41">
+        <v>0.14</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3070</v>
       </c>
     </row>
   </sheetData>
